--- a/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_0_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/90/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1343144.309183853</v>
+        <v>1352589.435833654</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809167</v>
+        <v>393801.3664809164</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>385.2588151817326</v>
       </c>
       <c r="D2" t="n">
-        <v>389.0844479550142</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -674,10 +674,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>56.44602321148374</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +883,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>162.7496032310245</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>158.2027890090158</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>342.246226749926</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.673798810038</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>409.7674663971677</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1139,19 +1139,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>399.8597777088772</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1297,7 +1297,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>47.32556988066135</v>
       </c>
       <c r="V10" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1531,7 +1531,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.44420510686426</v>
+        <v>46.5578731729547</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1591,7 +1591,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1765,25 +1765,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>200.1143878900198</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>213.2897221345052</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1859,7 +1859,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686437</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>206.6816267311641</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2135,10 +2135,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250119</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.750738971138077</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>214.829441807363</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2305,7 +2305,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2533,13 +2533,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>231.8185885519068</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>125.4681117271434</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2713,19 +2713,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.24387488545703</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686437</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2956,19 +2956,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>180.2243799378003</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>155.106559968893</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.1668213893229</v>
+        <v>178.1668213893223</v>
       </c>
       <c r="C34" t="n">
-        <v>160.1553498542511</v>
+        <v>160.1553498542504</v>
       </c>
       <c r="D34" t="n">
-        <v>151.586117508875</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.4486361530529</v>
+        <v>108.1577655104259</v>
       </c>
       <c r="F34" t="n">
-        <v>160.0456688475631</v>
+        <v>160.0456688475624</v>
       </c>
       <c r="G34" t="n">
-        <v>154.4969123730882</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>132.2608181713051</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.67339494150474</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.47073954407654</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>158.3362093704345</v>
+        <v>158.3362093704337</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.8084666607363</v>
       </c>
       <c r="U34" t="n">
-        <v>267.2851163790767</v>
+        <v>267.285116379076</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>268.7968650824287</v>
       </c>
       <c r="W34" t="n">
-        <v>262.0063921535901</v>
+        <v>262.0063921535893</v>
       </c>
       <c r="X34" t="n">
-        <v>230.0407699530309</v>
+        <v>230.0407699530302</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.8083315532105</v>
+        <v>213.9818529915326</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295135</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3329,10 +3329,10 @@
         <v>356.7528348300169</v>
       </c>
       <c r="X35" t="n">
-        <v>371.9281974712895</v>
+        <v>371.9281974712906</v>
       </c>
       <c r="Y35" t="n">
-        <v>365.6092959720189</v>
+        <v>365.6092959720182</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705894</v>
       </c>
       <c r="S37" t="n">
         <v>132.7590956334168</v>
@@ -3487,7 +3487,7 @@
         <v>236.4292784165725</v>
       </c>
       <c r="X37" t="n">
-        <v>204.4636562160131</v>
+        <v>204.4636562160133</v>
       </c>
       <c r="Y37" t="n">
         <v>188.4047392545157</v>
@@ -3554,7 +3554,7 @@
         <v>67.64901981295137</v>
       </c>
       <c r="T38" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731736</v>
       </c>
       <c r="U38" t="n">
         <v>220.0967589369122</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523057</v>
       </c>
       <c r="C40" t="n">
         <v>134.5782361172335</v>
@@ -3667,19 +3667,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E40" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F40" t="n">
-        <v>134.4685551105455</v>
+        <v>134.4685551105456</v>
       </c>
       <c r="G40" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H40" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I40" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705896</v>
       </c>
       <c r="S40" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334169</v>
       </c>
       <c r="T40" t="n">
         <v>205.2313529237194</v>
@@ -3718,7 +3718,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V40" t="n">
-        <v>243.2197513454119</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W40" t="n">
         <v>236.4292784165725</v>
@@ -3727,7 +3727,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.4047392545157</v>
+        <v>188.4047392545158</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3791,7 @@
         <v>67.64901981295137</v>
       </c>
       <c r="T41" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731736</v>
       </c>
       <c r="U41" t="n">
         <v>220.0967589369122</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C43" t="n">
         <v>134.5782361172335</v>
@@ -3904,19 +3904,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E43" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F43" t="n">
-        <v>134.4685551105455</v>
+        <v>134.4685551105456</v>
       </c>
       <c r="G43" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H43" t="n">
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.893625807059</v>
+        <v>10.89362580705896</v>
       </c>
       <c r="S43" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334169</v>
       </c>
       <c r="T43" t="n">
         <v>205.2313529237194</v>
@@ -3955,7 +3955,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V43" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W43" t="n">
         <v>236.4292784165725</v>
@@ -3964,7 +3964,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.4047392545157</v>
+        <v>188.4047392545158</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981294985</v>
       </c>
       <c r="T44" t="n">
-        <v>183.0417138731735</v>
+        <v>183.0417138731736</v>
       </c>
       <c r="U44" t="n">
         <v>220.0967589369122</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.5897076523053</v>
+        <v>152.5897076523054</v>
       </c>
       <c r="C46" t="n">
         <v>134.5782361172335</v>
@@ -4141,19 +4141,19 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E46" t="n">
-        <v>128.8715224160353</v>
+        <v>128.8715224160354</v>
       </c>
       <c r="F46" t="n">
-        <v>134.4685551105455</v>
+        <v>134.4685551105456</v>
       </c>
       <c r="G46" t="n">
-        <v>128.9197986360705</v>
+        <v>128.9197986360706</v>
       </c>
       <c r="H46" t="n">
-        <v>106.6837044342875</v>
+        <v>106.6837044342866</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448716</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705896</v>
       </c>
       <c r="S46" t="n">
-        <v>132.7590956334168</v>
+        <v>132.7590956334169</v>
       </c>
       <c r="T46" t="n">
         <v>205.2313529237194</v>
@@ -4192,7 +4192,7 @@
         <v>241.7080026420591</v>
       </c>
       <c r="V46" t="n">
-        <v>243.2197513454117</v>
+        <v>243.2197513454118</v>
       </c>
       <c r="W46" t="n">
         <v>236.4292784165725</v>
@@ -4201,7 +4201,7 @@
         <v>204.4636562160133</v>
       </c>
       <c r="Y46" t="n">
-        <v>188.4047392545157</v>
+        <v>188.4047392545158</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1712.568009832797</v>
+        <v>2037.860874915024</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.667279846097</v>
+        <v>1648.710556549637</v>
       </c>
       <c r="D2" t="n">
-        <v>892.6526859521437</v>
+        <v>1225.417935734637</v>
       </c>
       <c r="E2" t="n">
-        <v>870.7161501404053</v>
+        <v>1203.481399922899</v>
       </c>
       <c r="F2" t="n">
-        <v>445.5919683298055</v>
+        <v>778.3572181122994</v>
       </c>
       <c r="G2" t="n">
-        <v>41.25290591925408</v>
+        <v>374.018155701748</v>
       </c>
       <c r="H2" t="n">
-        <v>41.25290591925408</v>
+        <v>76.14977717578287</v>
       </c>
       <c r="I2" t="n">
         <v>41.25290591925408</v>
       </c>
       <c r="J2" t="n">
-        <v>403.8563647361496</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K2" t="n">
-        <v>914.3610754869188</v>
+        <v>75.04568420621314</v>
       </c>
       <c r="L2" t="n">
-        <v>914.3610754869188</v>
+        <v>585.5503949569822</v>
       </c>
       <c r="M2" t="n">
-        <v>914.3610754869188</v>
+        <v>1096.055105707751</v>
       </c>
       <c r="N2" t="n">
-        <v>978.4987708258493</v>
+        <v>1096.055105707751</v>
       </c>
       <c r="O2" t="n">
-        <v>978.4987708258493</v>
+        <v>1606.559816458521</v>
       </c>
       <c r="P2" t="n">
-        <v>1489.003481576618</v>
+        <v>1606.559816458521</v>
       </c>
       <c r="Q2" t="n">
-        <v>1945.088961080801</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R2" t="n">
         <v>2062.645295962704</v>
       </c>
       <c r="S2" t="n">
-        <v>1958.278001835844</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="T2" t="n">
-        <v>1737.352430880478</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="U2" t="n">
-        <v>1737.352430880478</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="V2" t="n">
-        <v>1737.352430880478</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.352430880478</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="X2" t="n">
-        <v>1729.672836088629</v>
+        <v>2054.965701170855</v>
       </c>
       <c r="Y2" t="n">
-        <v>1728.375970083923</v>
+        <v>2053.66883516615</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>94.6289991569445</v>
+        <v>94.62899915694449</v>
       </c>
       <c r="H3" t="n">
         <v>41.25290591925408</v>
@@ -4407,28 +4407,28 @@
         <v>41.25290591925408</v>
       </c>
       <c r="J3" t="n">
-        <v>282.7663280507431</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K3" t="n">
-        <v>793.2710388015123</v>
+        <v>551.7576166700231</v>
       </c>
       <c r="L3" t="n">
-        <v>793.2710388015123</v>
+        <v>1062.262327420792</v>
       </c>
       <c r="M3" t="n">
-        <v>793.2710388015123</v>
+        <v>1572.767038171561</v>
       </c>
       <c r="N3" t="n">
-        <v>793.2710388015123</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="O3" t="n">
-        <v>1303.775749552281</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>1303.775749552281</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>1767.921226415061</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
         <v>1849.940536499764</v>
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.665460183767</v>
+        <v>620.107078665137</v>
       </c>
       <c r="C4" t="n">
-        <v>852.692897062683</v>
+        <v>448.134515544053</v>
       </c>
       <c r="D4" t="n">
-        <v>689.3761241894537</v>
+        <v>284.8177426708237</v>
       </c>
       <c r="E4" t="n">
-        <v>523.1679183423072</v>
+        <v>284.8177426708237</v>
       </c>
       <c r="F4" t="n">
-        <v>351.3061441168676</v>
+        <v>284.8177426708237</v>
       </c>
       <c r="G4" t="n">
-        <v>185.0491744110997</v>
+        <v>284.8177426708237</v>
       </c>
       <c r="H4" t="n">
-        <v>41.25290591925408</v>
+        <v>141.0214741789781</v>
       </c>
       <c r="I4" t="n">
         <v>41.25290591925408</v>
       </c>
       <c r="J4" t="n">
-        <v>98.7442341434121</v>
+        <v>98.74423414341209</v>
       </c>
       <c r="K4" t="n">
         <v>325.2718353492493</v>
       </c>
       <c r="L4" t="n">
-        <v>679.9611566436701</v>
+        <v>520.9405192739907</v>
       </c>
       <c r="M4" t="n">
-        <v>1071.146951613921</v>
+        <v>912.1263142442415</v>
       </c>
       <c r="N4" t="n">
-        <v>1448.638462489957</v>
+        <v>1289.617825120277</v>
       </c>
       <c r="O4" t="n">
-        <v>1645.045953800041</v>
+        <v>1645.04595380004</v>
       </c>
       <c r="P4" t="n">
         <v>1935.645165721942</v>
@@ -4516,22 +4516,22 @@
         <v>2015.606682649877</v>
       </c>
       <c r="T4" t="n">
-        <v>2015.606682649877</v>
+        <v>1772.267334875777</v>
       </c>
       <c r="U4" t="n">
-        <v>2015.606682649877</v>
+        <v>1492.082886376081</v>
       </c>
       <c r="V4" t="n">
-        <v>1958.590497587772</v>
+        <v>1492.082886376081</v>
       </c>
       <c r="W4" t="n">
-        <v>1683.738093760285</v>
+        <v>1217.230482548594</v>
       </c>
       <c r="X4" t="n">
-        <v>1441.174197206091</v>
+        <v>974.666585994399</v>
       </c>
       <c r="Y4" t="n">
-        <v>1214.831428895833</v>
+        <v>810.2730473772026</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1075.874808970094</v>
+        <v>1270.775797585522</v>
       </c>
       <c r="C5" t="n">
-        <v>1053.014483023798</v>
+        <v>843.8750675988226</v>
       </c>
       <c r="D5" t="n">
-        <v>629.7218622087985</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1145.829295018124</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4595,22 +4595,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1504.699634058179</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1504.699634058179</v>
+        <v>1295.560218633203</v>
       </c>
       <c r="X5" t="n">
-        <v>1497.02003926633</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y5" t="n">
-        <v>1091.68276922122</v>
+        <v>1286.583757836648</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336857</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4747,16 +4747,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
         <v>2061.60438497749</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.938409122541</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4811,43 +4811,43 @@
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.054543461766</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>1763.054543461766</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>578.73314269306</v>
       </c>
     </row>
     <row r="9">
@@ -4887,22 +4887,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
         <v>626.1818057320246</v>
@@ -4993,19 +4993,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.107646522315</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1895.396179130343</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1620.543775302856</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>1377.979878748662</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>1151.637110438404</v>
       </c>
     </row>
     <row r="11">
@@ -5039,31 +5039,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>464.906172222724</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.532766690842</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
         <v>5010.768376164567</v>
@@ -5109,28 +5109,28 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L12" t="n">
-        <v>964.4851292537592</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M12" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
         <v>1910.990343986338</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.1370507523521</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C13" t="n">
-        <v>274.1644876312681</v>
+        <v>847.3030669618347</v>
       </c>
       <c r="D13" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="E13" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886055</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299867</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358239</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302447</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
         <v>1132.196759100495</v>
@@ -5224,25 +5224,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.687586098801</v>
       </c>
       <c r="T13" t="n">
-        <v>1941.958004048024</v>
+        <v>1992.348238324701</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.773555548328</v>
+        <v>1992.348238324701</v>
       </c>
       <c r="V13" t="n">
-        <v>1380.062088156358</v>
+        <v>1710.636770932729</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.209684328871</v>
+        <v>1435.784367105242</v>
       </c>
       <c r="X13" t="n">
-        <v>862.6457877746758</v>
+        <v>1435.784367105242</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.3030194644177</v>
+        <v>1209.441598794984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5276,34 +5276,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
         <v>4789.842805209199</v>
@@ -5318,7 +5318,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5346,7 +5346,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5355,25 +5355,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>964.4851292537592</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N15" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>446.1370507523521</v>
+        <v>675.3925288777739</v>
       </c>
       <c r="C16" t="n">
-        <v>274.1644876312681</v>
+        <v>675.3925288777739</v>
       </c>
       <c r="D16" t="n">
-        <v>274.1644876312681</v>
+        <v>512.0757560045446</v>
       </c>
       <c r="E16" t="n">
-        <v>274.1644876312681</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5473,13 +5473,13 @@
         <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1105.209684328871</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X16" t="n">
-        <v>862.6457877746757</v>
+        <v>1091.901265900098</v>
       </c>
       <c r="Y16" t="n">
-        <v>636.3030194644177</v>
+        <v>865.5584975898395</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5519,46 +5519,46 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614083</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100784</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
         <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
         <v>1364.825557038856</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>689.7018875039219</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
         <v>386.3216428358237</v>
@@ -5698,25 +5698,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548328</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1623.626924907927</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.209684328871</v>
+        <v>1348.77452108044</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746758</v>
+        <v>1106.210624526246</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>879.8678562159874</v>
       </c>
     </row>
     <row r="20">
@@ -5750,40 +5750,40 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
         <v>4173.998480931861</v>
@@ -5820,7 +5820,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5832,22 +5832,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>552.724547265751</v>
+        <v>606.7404520798268</v>
       </c>
       <c r="C22" t="n">
-        <v>380.7519841446669</v>
+        <v>434.7678889587428</v>
       </c>
       <c r="D22" t="n">
-        <v>380.7519841446669</v>
+        <v>434.7678889587428</v>
       </c>
       <c r="E22" t="n">
-        <v>373.9330558909921</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5932,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.376956875803</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1540.665489483832</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1265.813085656345</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778167</v>
+        <v>1023.24918910215</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778167</v>
+        <v>796.9064207918925</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P23" t="n">
         <v>4541.493855905342</v>
@@ -6063,19 +6063,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1808.730580298577</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.9330558909921</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C25" t="n">
-        <v>373.9330558909921</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D25" t="n">
-        <v>373.9330558909921</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E25" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058286</v>
@@ -6172,25 +6172,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.858093294998</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W25" t="n">
-        <v>1033.005689467511</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X25" t="n">
-        <v>790.4417929133157</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.0990246030578</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6306,22 +6306,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>991.7839914173002</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1707.981708455798</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058286</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058286</v>
@@ -6406,28 +6406,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>516.547747667558</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6546,16 @@
         <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.4138558574795</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C31" t="n">
-        <v>675.4412927363954</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D31" t="n">
-        <v>512.1245198631661</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E31" t="n">
-        <v>512.1245198631661</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058286</v>
@@ -6649,22 +6649,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>2100.670912598957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1820.486464099261</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V31" t="n">
-        <v>1538.77499670729</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W31" t="n">
-        <v>1263.922592879803</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X31" t="n">
-        <v>1263.922592879803</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y31" t="n">
-        <v>1037.579824569545</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6774,31 +6774,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>971.931772215671</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1114.087458708495</v>
+        <v>534.9883540242516</v>
       </c>
       <c r="C34" t="n">
-        <v>952.3143780476357</v>
+        <v>373.2152733633926</v>
       </c>
       <c r="D34" t="n">
-        <v>799.1970876346307</v>
+        <v>373.2152733633926</v>
       </c>
       <c r="E34" t="n">
-        <v>643.1883642477086</v>
+        <v>263.9650051710431</v>
       </c>
       <c r="F34" t="n">
-        <v>481.5260724824933</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G34" t="n">
-        <v>325.4685852369497</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
-        <v>191.8717992053283</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>169.7905543892524</v>
+        <v>169.7905543892531</v>
       </c>
       <c r="K34" t="n">
-        <v>406.3146683543554</v>
+        <v>406.3146683543568</v>
       </c>
       <c r="L34" t="n">
-        <v>771.0005024080419</v>
+        <v>771.000502408044</v>
       </c>
       <c r="M34" t="n">
-        <v>1172.182810137559</v>
+        <v>1172.182810137561</v>
       </c>
       <c r="N34" t="n">
-        <v>1559.67083377286</v>
+        <v>1559.670833772863</v>
       </c>
       <c r="O34" t="n">
-        <v>1925.095475211889</v>
+        <v>1925.095475211893</v>
       </c>
       <c r="P34" t="n">
-        <v>2225.691199893056</v>
+        <v>2225.691199893061</v>
       </c>
       <c r="Q34" t="n">
-        <v>2362.687842893084</v>
+        <v>2362.68784289309</v>
       </c>
       <c r="R34" t="n">
-        <v>2325.848712040481</v>
+        <v>2362.68784289309</v>
       </c>
       <c r="S34" t="n">
-        <v>2165.91314701984</v>
+        <v>2202.752277872449</v>
       </c>
       <c r="T34" t="n">
-        <v>2165.91314701984</v>
+        <v>1969.612412558574</v>
       </c>
       <c r="U34" t="n">
-        <v>1895.928180980369</v>
+        <v>1699.627446519103</v>
       </c>
       <c r="V34" t="n">
-        <v>1895.928180980369</v>
+        <v>1428.115461587357</v>
       </c>
       <c r="W34" t="n">
-        <v>1631.275259613106</v>
+        <v>1163.462540220095</v>
       </c>
       <c r="X34" t="n">
-        <v>1398.910845519135</v>
+        <v>931.0981261261251</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.053944960337</v>
+        <v>714.9548402760921</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793285</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K35" t="n">
-        <v>101.155468562867</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L35" t="n">
-        <v>1030.780516182144</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M35" t="n">
-        <v>2035.066617601202</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="N35" t="n">
-        <v>3011.317676087903</v>
+        <v>3263.511475741647</v>
       </c>
       <c r="O35" t="n">
-        <v>3856.462326238715</v>
+        <v>4108.656125892459</v>
       </c>
       <c r="P35" t="n">
-        <v>4564.741605396643</v>
+        <v>4108.656125892459</v>
       </c>
       <c r="Q35" t="n">
         <v>4564.741605396643</v>
@@ -6977,7 +6977,7 @@
         <v>3407.387820744695</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y35" t="n">
         <v>2662.400453630242</v>
@@ -7017,22 +7017,22 @@
         <v>362.9923213875239</v>
       </c>
       <c r="K36" t="n">
-        <v>953.4772479558635</v>
+        <v>362.9923213875239</v>
       </c>
       <c r="L36" t="n">
-        <v>1790.27605603877</v>
+        <v>362.9923213875239</v>
       </c>
       <c r="M36" t="n">
-        <v>1899.982462688443</v>
+        <v>362.9923213875239</v>
       </c>
       <c r="N36" t="n">
-        <v>1899.982462688443</v>
+        <v>362.9923213875239</v>
       </c>
       <c r="O36" t="n">
-        <v>1899.982462688443</v>
+        <v>719.6392687871653</v>
       </c>
       <c r="P36" t="n">
-        <v>1899.982462688443</v>
+        <v>1435.836985825663</v>
       </c>
       <c r="Q36" t="n">
         <v>1899.982462688443</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619903</v>
+        <v>922.2312984619898</v>
       </c>
       <c r="C37" t="n">
-        <v>786.2936862223605</v>
+        <v>786.2936862223601</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305854</v>
+        <v>659.0118642305852</v>
       </c>
       <c r="E37" t="n">
         <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209078</v>
+        <v>393.0117859209079</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>262.7897670965942</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910041</v>
@@ -7099,7 +7099,7 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090884</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238252</v>
@@ -7108,13 +7108,13 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O37" t="n">
-        <v>2066.015649511878</v>
+        <v>2066.015649511877</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792691</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392366</v>
       </c>
       <c r="R37" t="n">
         <v>2543.247039960994</v>
@@ -7123,7 +7123,7 @@
         <v>2409.146943361583</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468937</v>
       </c>
       <c r="U37" t="n">
         <v>1957.693048850696</v>
@@ -7138,7 +7138,7 @@
         <v>1266.670133721405</v>
       </c>
       <c r="Y37" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
@@ -7172,25 +7172,25 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
-        <v>91.29483210793285</v>
+        <v>101.155468562867</v>
       </c>
       <c r="K38" t="n">
-        <v>806.8031400834319</v>
+        <v>101.155468562867</v>
       </c>
       <c r="L38" t="n">
-        <v>806.8031400834319</v>
+        <v>1030.780516182144</v>
       </c>
       <c r="M38" t="n">
-        <v>1578.981138097019</v>
+        <v>2035.066617601202</v>
       </c>
       <c r="N38" t="n">
-        <v>2555.23219658372</v>
+        <v>3011.317676087903</v>
       </c>
       <c r="O38" t="n">
-        <v>3400.376846734532</v>
+        <v>3856.462326238715</v>
       </c>
       <c r="P38" t="n">
-        <v>4108.656125892459</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="Q38" t="n">
         <v>4564.741605396643</v>
@@ -7214,7 +7214,7 @@
         <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
         <v>2662.400453630242</v>
@@ -7254,16 +7254,16 @@
         <v>370.4389643494358</v>
       </c>
       <c r="K39" t="n">
-        <v>960.9238909177753</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="L39" t="n">
-        <v>960.9238909177753</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="M39" t="n">
-        <v>1353.81767574096</v>
+        <v>370.4389643494358</v>
       </c>
       <c r="N39" t="n">
-        <v>1353.81767574096</v>
+        <v>464.3363977294885</v>
       </c>
       <c r="O39" t="n">
         <v>1353.81767574096</v>
@@ -7309,10 +7309,10 @@
         <v>922.2312984619905</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E40" t="n">
         <v>528.8386092648932</v>
@@ -7330,13 +7330,13 @@
         <v>91.29483210793285</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910041</v>
+        <v>184.104015691004</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557542</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090882</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7354,19 +7354,19 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.842546468937</v>
+        <v>2201.842546468938</v>
       </c>
       <c r="U40" t="n">
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W40" t="n">
         <v>1473.199079394147</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220166</v>
+        <v>2278.587040220165</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114919</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.463591181375</v>
+        <v>1500.463591181374</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210686</v>
       </c>
       <c r="F41" t="n">
-        <v>721.432371281541</v>
+        <v>721.4323712815401</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524438</v>
+        <v>353.1282597524429</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793279</v>
+        <v>91.29483210793188</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
         <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>453.8982909248284</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1383.523338544105</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2387.809439963164</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="N41" t="n">
-        <v>3364.060498449865</v>
+        <v>4079.568806425363</v>
       </c>
       <c r="O41" t="n">
-        <v>4209.205148600677</v>
+        <v>4108.656125892459</v>
       </c>
       <c r="P41" t="n">
-        <v>4209.205148600677</v>
+        <v>4108.656125892459</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.185270514741</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562895</v>
+        <v>3767.744219562894</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744696</v>
+        <v>3407.387820744695</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630242</v>
+        <v>2662.400453630241</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
         <v>370.4389643494358</v>
@@ -7494,19 +7494,19 @@
         <v>960.9238909177753</v>
       </c>
       <c r="L42" t="n">
-        <v>1353.81767574096</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M42" t="n">
-        <v>1353.81767574096</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="N42" t="n">
-        <v>1353.81767574096</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="O42" t="n">
-        <v>1353.81767574096</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="P42" t="n">
-        <v>1353.81767574096</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="Q42" t="n">
         <v>1817.963152603739</v>
@@ -7546,43 +7546,43 @@
         <v>922.2312984619905</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862026</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J43" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557542</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
-        <v>835.956648909088</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M43" t="n">
         <v>1262.460299238252</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
         <v>2391.932716792692</v>
@@ -7625,7 +7625,7 @@
         <v>2278.587040220167</v>
       </c>
       <c r="C44" t="n">
-        <v>1887.72126111492</v>
+        <v>1887.721261114921</v>
       </c>
       <c r="D44" t="n">
         <v>1500.463591181375</v>
@@ -7634,52 +7634,52 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815417</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
-        <v>101.1554685628679</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>101.1554685628679</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>1030.780516182145</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="M44" t="n">
-        <v>2035.066617601203</v>
+        <v>1461.424803215116</v>
       </c>
       <c r="N44" t="n">
-        <v>3011.317676087904</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O44" t="n">
-        <v>3856.462326238716</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>4564.741605396644</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
         <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555193</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
         <v>3767.744219562896</v>
@@ -7719,10 +7719,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J45" t="n">
         <v>370.4389643494358</v>
@@ -7731,16 +7731,16 @@
         <v>960.9238909177753</v>
       </c>
       <c r="L45" t="n">
-        <v>1353.81767574096</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M45" t="n">
-        <v>1353.81767574096</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N45" t="n">
-        <v>1353.81767574096</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="O45" t="n">
-        <v>1353.81767574096</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="P45" t="n">
         <v>1353.81767574096</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619897</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223598</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305847</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648924</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209079</v>
+        <v>393.011785920907</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965932</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J46" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.9494722557547</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090887</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238253</v>
+        <v>1262.460299238252</v>
       </c>
       <c r="N46" t="n">
         <v>1675.269665473201</v>
@@ -7828,7 +7828,7 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R46" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S46" t="n">
         <v>2409.146943361583</v>
@@ -7849,7 +7849,7 @@
         <v>1266.670133721406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292601</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>551.4259247854853</v>
+        <v>69.89872027658618</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>553.9733664232988</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>553.0925868901077</v>
       </c>
       <c r="N2" t="n">
-        <v>102.0651736818506</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>553.0522833467001</v>
       </c>
       <c r="P2" t="n">
-        <v>553.2366858009073</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8055,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>264.564065981302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>538.0605578240094</v>
+        <v>538.0605578240093</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>538.1764107049055</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>538.7581045030039</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>301.3162588480898</v>
       </c>
       <c r="O3" t="n">
-        <v>538.8332137128982</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>219.5638951732178</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8149,7 +8149,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>220.8905928621459</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q5" t="n">
-        <v>451.134864077236</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,25 +8292,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>462.5747547263934</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8459,22 +8459,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P8" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,25 +8535,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>97.19681650027508</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>586.4197136125397</v>
+        <v>229.9501690078888</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8763,25 +8763,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>979.1626539795797</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>942.3124318571035</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>952.685833629606</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8942,13 +8942,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602115997</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>509.0028996591719</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9167,10 +9167,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>398.9108788555769</v>
+        <v>877.2336749314277</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,7 +9182,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9243,7 +9243,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>292.2790261091175</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9258,7 +9258,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9422,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>129.135014084331</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9650,10 +9650,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9711,22 +9711,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>126.3894711060262</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9890,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.806266097605</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,13 +10124,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10194,7 +10194,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10206,7 +10206,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10364,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>618.848654609434</v>
@@ -10440,16 +10440,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P33" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>45.72483963817716</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,16 +10595,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>199.0914691000874</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10665,25 +10665,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>133.9113326837148</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>383.4213315400418</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>39.38019832895434</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>817.4090386707315</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10841,7 +10841,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10902,19 +10902,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>419.9591894246358</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>116.1889205166252</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,7 +11060,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11072,16 +11072,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>66.77209013086876</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.5086361339561</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>419.3774956265374</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167935</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11157,7 +11157,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>39.38019832895523</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>332.3991460456832</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11315,10 +11315,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>419.3774956265374</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11391,7 +11391,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>71.98949189919223</v>
+        <v>121.8758238331018</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>71.98949189919234</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>26.84853545414771</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23938,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.98949189919212</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>72.21272598688731</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>157.7953848175369</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>62.55316220733574</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.07576416614457</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>114.6701458615095</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>107.3022489032179</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.98949189919212</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>60.68157435855868</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>116.9973198203191</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5861175088743</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.2908706426263</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>154.4969123730874</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.2608181713044</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.67339494150404</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407584</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8084666607369</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>268.7968650824293</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.1735214383228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.519424586149398e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>646334.9636080643</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646334.9636080643</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652979.1718650284</v>
+        <v>652979.171865029</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>669809.0682128376</v>
+        <v>669809.0682128374</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349465.6008066978</v>
+        <v>349465.6008066976</v>
       </c>
       <c r="C2" t="n">
         <v>349465.6008066978</v>
@@ -26320,40 +26320,40 @@
         <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="F2" t="n">
-        <v>337218.2418824682</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="G2" t="n">
-        <v>337218.2418824682</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="H2" t="n">
         <v>337218.2418824683</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="J2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="L2" t="n">
-        <v>340684.7853208838</v>
+        <v>340684.7853208851</v>
       </c>
       <c r="M2" t="n">
         <v>349465.600806698</v>
       </c>
       <c r="N2" t="n">
-        <v>349465.6008066981</v>
+        <v>349465.600806698</v>
       </c>
       <c r="O2" t="n">
         <v>349465.6008066981</v>
       </c>
       <c r="P2" t="n">
-        <v>349465.6008066979</v>
+        <v>349465.6008066977</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>172809.9698797273</v>
       </c>
       <c r="C3" t="n">
-        <v>13105.84347019884</v>
+        <v>13105.84347019888</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>134919.6914542164</v>
       </c>
       <c r="K3" t="n">
-        <v>10440.51617310193</v>
+        <v>10440.51617310196</v>
       </c>
       <c r="L3" t="n">
-        <v>8077.990108497635</v>
+        <v>8077.990108498193</v>
       </c>
       <c r="M3" t="n">
-        <v>166235.4618077718</v>
+        <v>166235.4618077711</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150394.7398525979</v>
+        <v>149593.3102091353</v>
       </c>
       <c r="C4" t="n">
-        <v>141191.8632457151</v>
+        <v>140349.806289004</v>
       </c>
       <c r="D4" t="n">
-        <v>141191.863245715</v>
+        <v>140349.806289004</v>
       </c>
       <c r="E4" t="n">
-        <v>3596.17615798713</v>
+        <v>2198.118208965248</v>
       </c>
       <c r="F4" t="n">
-        <v>3596.17615798713</v>
+        <v>2198.118208965248</v>
       </c>
       <c r="G4" t="n">
-        <v>3596.176157987129</v>
+        <v>2198.118208965292</v>
       </c>
       <c r="H4" t="n">
-        <v>3596.176157987119</v>
+        <v>2198.118208965248</v>
       </c>
       <c r="I4" t="n">
-        <v>3596.17615798713</v>
+        <v>2198.118208965249</v>
       </c>
       <c r="J4" t="n">
-        <v>3596.176157987131</v>
+        <v>2198.118208965249</v>
       </c>
       <c r="K4" t="n">
-        <v>3596.17615798713</v>
+        <v>2198.118208965249</v>
       </c>
       <c r="L4" t="n">
-        <v>6918.752803727236</v>
+        <v>5520.694854705582</v>
       </c>
       <c r="M4" t="n">
-        <v>39318.98754654005</v>
+        <v>38026.81052647155</v>
       </c>
       <c r="N4" t="n">
-        <v>39318.98754654001</v>
+        <v>38026.8105264715</v>
       </c>
       <c r="O4" t="n">
-        <v>39318.98754654001</v>
+        <v>38026.81052647154</v>
       </c>
       <c r="P4" t="n">
-        <v>39318.98754654001</v>
+        <v>38026.8105264715</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26497,7 +26497,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>78598.9478764688</v>
+        <v>78598.94787646885</v>
       </c>
       <c r="M5" t="n">
         <v>72383.20046482541</v>
@@ -26506,10 +26506,10 @@
         <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38718.91742426046</v>
+        <v>-37917.48778079805</v>
       </c>
       <c r="C6" t="n">
-        <v>127721.6430533558</v>
+        <v>128563.7000100668</v>
       </c>
       <c r="D6" t="n">
-        <v>140827.4865235547</v>
+        <v>141669.5434802657</v>
       </c>
       <c r="E6" t="n">
-        <v>40132.64697941107</v>
+        <v>41479.67426624885</v>
       </c>
       <c r="F6" t="n">
-        <v>255872.0035360514</v>
+        <v>257219.0308228893</v>
       </c>
       <c r="G6" t="n">
-        <v>255872.0035360514</v>
+        <v>257219.0308228891</v>
       </c>
       <c r="H6" t="n">
-        <v>255872.0035360516</v>
+        <v>257219.0308228891</v>
       </c>
       <c r="I6" t="n">
-        <v>255872.0035360516</v>
+        <v>257219.0308228892</v>
       </c>
       <c r="J6" t="n">
-        <v>120952.3120818352</v>
+        <v>122299.3393686729</v>
       </c>
       <c r="K6" t="n">
-        <v>245431.4873629498</v>
+        <v>246778.5146497873</v>
       </c>
       <c r="L6" t="n">
-        <v>247089.0945321902</v>
+        <v>248450.5657500216</v>
       </c>
       <c r="M6" t="n">
-        <v>71527.95098756076</v>
+        <v>72820.12800762986</v>
       </c>
       <c r="N6" t="n">
-        <v>237763.4127953327</v>
+        <v>239055.5898154011</v>
       </c>
       <c r="O6" t="n">
-        <v>237763.4127953327</v>
+        <v>239055.5898154012</v>
       </c>
       <c r="P6" t="n">
-        <v>237763.4127953324</v>
+        <v>239055.5898154007</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263964</v>
       </c>
       <c r="N2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.661323990676</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,16 +26796,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="M2" t="n">
-        <v>25.57711373701759</v>
+        <v>25.5771137370169</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.661323990676</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="C4" t="n">
-        <v>40.56648912491812</v>
+        <v>40.56648912491823</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>515.661323990676</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491812</v>
+        <v>40.56648912491823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>584.9575882335663</v>
+        <v>584.9575882335661</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>515.661323990676</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="K4" t="n">
-        <v>40.56648912491812</v>
+        <v>40.56648912491823</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>37.37290750510022</v>
       </c>
       <c r="D2" t="n">
-        <v>29.97524665183545</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>222.4483295065676</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.32973739613089</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>263.5143814446052</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>50.18120945273057</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969948</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27831,7 +27831,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080134</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>5.882414251447017</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27859,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.743021135053027</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>230.0570341340374</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="C34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="D34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="E34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="F34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="G34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="H34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="I34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="J34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="K34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="L34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="M34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="N34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="O34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="P34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="R34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="S34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="T34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="U34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="V34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="W34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="X34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.09748763562204</v>
+        <v>10.09748763562274</v>
       </c>
     </row>
     <row r="35">
@@ -30049,10 +30049,10 @@
         <v>35.67460137263964</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137264067</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137264032</v>
       </c>
     </row>
     <row r="36">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="J40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="L40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="M40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="P40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="R40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="S40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396448</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263962</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>515.661323990676</v>
+        <v>34.13411948177683</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="N2" t="n">
-        <v>64.78555084740454</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="P2" t="n">
-        <v>515.661323990676</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>243.9529516479687</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>515.661323990676</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>515.6613239906759</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>279.9732306345481</v>
       </c>
       <c r="O3" t="n">
-        <v>515.661323990676</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>197.6451352775166</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34869,7 +34869,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>198.3914053637214</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,22 +35179,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,25 +35255,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>75.42597529544641</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1076711799168</v>
+        <v>191.6381265752659</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>956.0658734672517</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>914.3737911969831</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35662,13 +35662,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013684</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>361.479615956145</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,7 +35902,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35963,7 +35963,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>269.8797922757842</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36142,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>94.1023641895345</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36370,10 +36370,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>103.2926905936983</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36610,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>205.0592278086265</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,13 +36844,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37084,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>596.4494207761006</v>
@@ -37160,16 +37160,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P33" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.16953634689277</v>
+        <v>68.16953634689347</v>
       </c>
       <c r="K34" t="n">
-        <v>238.913246429397</v>
+        <v>238.9132464293977</v>
       </c>
       <c r="L34" t="n">
-        <v>368.3695293471582</v>
+        <v>368.3695293471588</v>
       </c>
       <c r="M34" t="n">
-        <v>405.234654272239</v>
+        <v>405.2346542722397</v>
       </c>
       <c r="N34" t="n">
-        <v>391.4020440760622</v>
+        <v>391.4020440760629</v>
       </c>
       <c r="O34" t="n">
-        <v>369.1157994333625</v>
+        <v>369.1157994333632</v>
       </c>
       <c r="P34" t="n">
-        <v>303.6320451324917</v>
+        <v>303.6320451324924</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.3804474747755</v>
+        <v>138.3804474747762</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>9.960238843367817</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,16 +37315,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>161.8118462656414</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>110.8145521713869</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9.960238843367817</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>779.9777757712998</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37561,7 +37561,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391034</v>
       </c>
       <c r="K40" t="n">
         <v>264.4903601664146</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.760991117512488e-13</v>
       </c>
       <c r="J41" t="n">
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37792,16 +37792,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>29.38113077484467</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.3839615293581</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>396.8624089123078</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391034</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.960238843368707</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>294.9678831462513</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38035,10 +38035,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391034</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
